--- a/data/trans_dic/P2C_R1-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P2C_R1-Provincia-trans_dic.xlsx
@@ -711,35 +711,35 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.0053117079694514</v>
+        <v>0.00548076933602857</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1749778989007263</v>
+        <v>0.1531228145892934</v>
       </c>
       <c r="G5" s="5" t="inlineStr"/>
       <c r="H5" s="5" t="n">
-        <v>0.02302853762315452</v>
+        <v>0.02396749978545891</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.004652209603577396</v>
+        <v>0.004669373139009302</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2034613676940142</v>
+        <v>0.2235734769482036</v>
       </c>
       <c r="K5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.01990935216923326</v>
+        <v>0.01888084586148989</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.002710180109597125</v>
+        <v>0.002725594511881738</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2347623556521959</v>
+        <v>0.2297885899398637</v>
       </c>
     </row>
     <row r="6">
@@ -750,38 +750,38 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.04079322197824106</v>
+        <v>0.04210475645795203</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.05221310098863088</v>
+        <v>0.05375928353483311</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.03581986989071648</v>
+        <v>0.03294875775258202</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5110169466538437</v>
+        <v>0.4870057784020501</v>
       </c>
       <c r="G6" s="5" t="inlineStr"/>
       <c r="H6" s="5" t="n">
-        <v>0.09481862583501079</v>
+        <v>0.09460100400873352</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.04384949171856</v>
+        <v>0.03903791594479676</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4587946620511228</v>
+        <v>0.4577107244987083</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.01732658820478544</v>
+        <v>0.01717552582252371</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.06428726091175664</v>
+        <v>0.06381175038759773</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.02578410426112828</v>
+        <v>0.02649868652682362</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.431229435691191</v>
+        <v>0.4312163226279601</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>0.008008820933748328</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.2233269570645993</v>
+        <v>0.2233269570645995</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.01376252080468161</v>
@@ -847,10 +847,10 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1367867830211782</v>
+        <v>0.1396559710748418</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.00338004827582792</v>
+        <v>0.00487175830889747</v>
       </c>
       <c r="H8" s="5" t="n">
         <v>0</v>
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1047742559667352</v>
+        <v>0.1079757409165697</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.001855033772391218</v>
+        <v>0.001854246274668349</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.001403815127339099</v>
+        <v>0.001404225470552879</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.002300228711422446</v>
+        <v>0.001745318688293897</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1309253045111687</v>
+        <v>0.1328397906179339</v>
       </c>
     </row>
     <row r="9">
@@ -883,37 +883,37 @@
       </c>
       <c r="C9" s="5" t="inlineStr"/>
       <c r="D9" s="5" t="n">
-        <v>0.01505226956698991</v>
+        <v>0.01637598810493062</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02611929924570248</v>
+        <v>0.02462293909619423</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3357775426382624</v>
+        <v>0.3611251612552143</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.03559576250489381</v>
+        <v>0.03637883939833225</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.0198569710886031</v>
+        <v>0.01952521620123852</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.0258752879123681</v>
+        <v>0.02340371543934291</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2065824589130532</v>
+        <v>0.2064008408432406</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.01925861231507569</v>
+        <v>0.02084046197158667</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.0143389305196129</v>
+        <v>0.01255695694027755</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.0182583554268614</v>
+        <v>0.02084060421830201</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2369767250278215</v>
+        <v>0.2336429316789681</v>
       </c>
     </row>
     <row r="10">
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1763413125770025</v>
+        <v>0.1801905620317734</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
@@ -989,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2516930270999188</v>
+        <v>0.2451556971153538</v>
       </c>
       <c r="K11" s="5" t="n">
         <v>0</v>
@@ -998,10 +998,10 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.002305278668460684</v>
+        <v>0.002298257044775815</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2518986346245404</v>
+        <v>0.2451620606450775</v>
       </c>
     </row>
     <row r="12">
@@ -1014,34 +1014,34 @@
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="inlineStr"/>
       <c r="E12" s="5" t="n">
-        <v>0.02842270594058941</v>
+        <v>0.02816620395336687</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4002514125813733</v>
+        <v>0.426834677449436</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.03136761239349928</v>
+        <v>0.03355719193996833</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.03699214296368707</v>
+        <v>0.03383473284386526</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.0291693739550008</v>
+        <v>0.03284577867924639</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4508846653714269</v>
+        <v>0.4387585644180924</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.01580944273944539</v>
+        <v>0.01813899184138496</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.01924342542353981</v>
+        <v>0.01948797909280877</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.01981321121575742</v>
+        <v>0.02185795990177031</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3971660214875074</v>
+        <v>0.3980503436305833</v>
       </c>
     </row>
     <row r="13">
@@ -1105,29 +1105,29 @@
       <c r="D14" s="5" t="inlineStr"/>
       <c r="E14" s="5" t="inlineStr"/>
       <c r="F14" s="5" t="n">
-        <v>0.123950426935916</v>
+        <v>0.1334057747254428</v>
       </c>
       <c r="G14" s="5" t="inlineStr"/>
       <c r="H14" s="5" t="n">
-        <v>0.003770295561342183</v>
+        <v>0.006290791733724634</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.003444859514792178</v>
+        <v>0.003456361410169172</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.122664396284558</v>
+        <v>0.1223466134543049</v>
       </c>
       <c r="K14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.003369692936025706</v>
+        <v>0.003475414944945398</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.001953682159144632</v>
+        <v>0.001961696189032243</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1409005932866955</v>
+        <v>0.1474331637998144</v>
       </c>
     </row>
     <row r="15">
@@ -1138,34 +1138,34 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02735075297665077</v>
+        <v>0.02934826082094776</v>
       </c>
       <c r="D15" s="5" t="inlineStr"/>
       <c r="E15" s="5" t="inlineStr"/>
       <c r="F15" s="5" t="n">
-        <v>0.3807292504439762</v>
+        <v>0.3823937726852755</v>
       </c>
       <c r="G15" s="5" t="inlineStr"/>
       <c r="H15" s="5" t="n">
-        <v>0.03846466253260802</v>
+        <v>0.03639279918070824</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.0342126817788032</v>
+        <v>0.03044909876900667</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.243432638123694</v>
+        <v>0.2365582146134477</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.01336086559559793</v>
+        <v>0.01311780097289789</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.01999842565782653</v>
+        <v>0.02193245639409166</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.01651630365144112</v>
+        <v>0.01712667828922579</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2812386822770437</v>
+        <v>0.2756355100977432</v>
       </c>
     </row>
     <row r="16">
@@ -1213,7 +1213,7 @@
         <v>0.01617694116510006</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.1887731541082176</v>
+        <v>0.1887731541082177</v>
       </c>
     </row>
     <row r="17">
@@ -1224,16 +1224,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.0079088600109642</v>
+        <v>0.007932188955248687</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.007629571987756733</v>
+        <v>0.007552683921306892</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.05692635788919328</v>
+        <v>0.05508090766552975</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>0</v>
@@ -1241,19 +1241,19 @@
       <c r="H17" s="5" t="inlineStr"/>
       <c r="I17" s="5" t="inlineStr"/>
       <c r="J17" s="5" t="n">
-        <v>0.1440143846149653</v>
+        <v>0.140632098376245</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.007986921154665046</v>
+        <v>0.008048715523876563</v>
       </c>
       <c r="L17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.003594174776825451</v>
+        <v>0.003602564036022755</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1294637748942357</v>
+        <v>0.1264905561541769</v>
       </c>
     </row>
     <row r="18">
@@ -1264,36 +1264,36 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.0864589091091805</v>
+        <v>0.1015775893146492</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.08893719504291699</v>
+        <v>0.06906659022163444</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.09081199016794837</v>
+        <v>0.08681061408336681</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.286902051184327</v>
+        <v>0.2617186620014664</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.04933682587814227</v>
+        <v>0.05672567519826787</v>
       </c>
       <c r="H18" s="5" t="inlineStr"/>
       <c r="I18" s="5" t="inlineStr"/>
       <c r="J18" s="5" t="n">
-        <v>0.3259736750490952</v>
+        <v>0.3388764128449266</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.05067235089071625</v>
+        <v>0.05168305027654704</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.03580247778426205</v>
+        <v>0.03681697848772791</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.04221349860633766</v>
+        <v>0.03931296994171508</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.265889856869834</v>
+        <v>0.2707363035955846</v>
       </c>
     </row>
     <row r="19">
@@ -1317,7 +1317,7 @@
         <v>0.01772732039393515</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.2159682986429403</v>
+        <v>0.2159682986429404</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.01277633380662561</v>
@@ -1329,7 +1329,7 @@
         <v>0.00733423229462466</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.249467361382408</v>
+        <v>0.2494673613824081</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.006690187649087878</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.004954279088163171</v>
+        <v>0.005028815815266317</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1467134151946111</v>
+        <v>0.1417092248168422</v>
       </c>
       <c r="G20" s="5" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1849372205915296</v>
+        <v>0.1905754997423169</v>
       </c>
       <c r="K20" s="5" t="n">
         <v>0</v>
@@ -1378,10 +1378,10 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.002858252173023767</v>
+        <v>0.003331573600595158</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1834846769255232</v>
+        <v>0.186361258871412</v>
       </c>
     </row>
     <row r="21">
@@ -1393,35 +1393,35 @@
       </c>
       <c r="C21" s="5" t="inlineStr"/>
       <c r="D21" s="5" t="n">
-        <v>0.03889379905414778</v>
+        <v>0.03336095157743722</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.0473185017048003</v>
+        <v>0.04943132326950877</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.3014490358183176</v>
+        <v>0.305143745312174</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.04318447137679813</v>
+        <v>0.04297221099159122</v>
       </c>
       <c r="H21" s="5" t="inlineStr"/>
       <c r="I21" s="5" t="n">
-        <v>0.03655127733100347</v>
+        <v>0.03673285257229186</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.3239712482414208</v>
+        <v>0.3286238224745413</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.02694385262577292</v>
+        <v>0.02247181187532669</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.01769369976204073</v>
+        <v>0.0178209458309007</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.0300152171499904</v>
+        <v>0.03203797417268594</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.2923122018731144</v>
+        <v>0.2960714137174157</v>
       </c>
     </row>
     <row r="22">
@@ -1483,37 +1483,37 @@
         <v>0</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.002561272540579312</v>
+        <v>0.004966061292660742</v>
       </c>
       <c r="E23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.04600379457572516</v>
+        <v>0.0423799566271217</v>
       </c>
       <c r="G23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.004652925577882929</v>
+        <v>0.00641958645964346</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.002176060915477143</v>
+        <v>0.002184848866526868</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1203185961776277</v>
+        <v>0.1203606258384181</v>
       </c>
       <c r="K23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.006321200935361489</v>
+        <v>0.006320640859859718</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.002668176540613282</v>
+        <v>0.002543942083172568</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1070717940342455</v>
+        <v>0.1050399390909086</v>
       </c>
     </row>
     <row r="24">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.01265240129498436</v>
+        <v>0.01171298410797738</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.0316414257056455</v>
+        <v>0.0329714062946149</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.02275348473978655</v>
+        <v>0.02337107973676587</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2162987584226619</v>
+        <v>0.2118314550308469</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.01203750210242598</v>
+        <v>0.01215759824806573</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.02925246081356518</v>
+        <v>0.02839962702835594</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.02065466500757476</v>
+        <v>0.01925080322555621</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2829971132035948</v>
+        <v>0.2884873041192387</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.007551254962927674</v>
+        <v>0.007055903230384088</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.02450219547311067</v>
+        <v>0.02425915145272748</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.01530287934481806</v>
+        <v>0.01464031855481644</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.2380822833754912</v>
+        <v>0.2284429749050656</v>
       </c>
     </row>
     <row r="25">
@@ -1581,7 +1581,7 @@
         <v>0.008600942777156484</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.03540286075391436</v>
+        <v>0.03540286075391437</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.009298378782936434</v>
@@ -1616,40 +1616,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.002190900803020815</v>
+        <v>0.002192920137003073</v>
       </c>
       <c r="D26" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.002394102106965533</v>
+        <v>0.002033080339059114</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.0175122203218019</v>
+        <v>0.01586300311177528</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.002152040405945427</v>
+        <v>0.002145157796103418</v>
       </c>
       <c r="H26" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.005882000202678716</v>
+        <v>0.006300145912198391</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.05935187249194149</v>
+        <v>0.06167898939135761</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.003806402319776803</v>
+        <v>0.003811934116576257</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.0008816102910810645</v>
+        <v>0.0008878142148696636</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.006242803847016694</v>
+        <v>0.005958207879426128</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.04765452887031836</v>
+        <v>0.04695459356413693</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.02384004152248788</v>
+        <v>0.02565237549530068</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.01479857281312227</v>
+        <v>0.01348779644109292</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.02185137609112752</v>
+        <v>0.01953844590818912</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.06519706832522475</v>
+        <v>0.06558690150752207</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.02290545091058928</v>
+        <v>0.02364341446022849</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.01262552203159971</v>
+        <v>0.01198156437570083</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.02909950152993116</v>
+        <v>0.02888824248248196</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.114071714289047</v>
+        <v>0.115100838846761</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.01844202554568051</v>
+        <v>0.01879020701468842</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.008923597265167124</v>
+        <v>0.009733103138096407</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.0203581400217594</v>
+        <v>0.01913760295586486</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.08553463353231525</v>
+        <v>0.08453745506240547</v>
       </c>
     </row>
     <row r="28">
@@ -1741,7 +1741,7 @@
         <v>0.009489081278261291</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>0.1602322958500629</v>
+        <v>0.1602322958500628</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1752,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.002705986570047548</v>
+        <v>0.002882295472978949</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.004505239760208592</v>
+        <v>0.004415000304714328</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.005405364468657178</v>
+        <v>0.00575321301657449</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.122620093383172</v>
+        <v>0.1200841395602265</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.004310028726951489</v>
+        <v>0.004449152878521468</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.007847054920639789</v>
+        <v>0.007644978330669619</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.006008423819901002</v>
+        <v>0.006019305364634413</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.1465834285035847</v>
+        <v>0.1469421461275396</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.004556869694593435</v>
+        <v>0.004607525325048698</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.00686581683101294</v>
+        <v>0.006961567379129131</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.006941344259526736</v>
+        <v>0.006890829571809961</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.1435625940946736</v>
+        <v>0.1434546527711997</v>
       </c>
     </row>
     <row r="30">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.01049363282593224</v>
+        <v>0.01096341272816494</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.01315199217844607</v>
+        <v>0.01333917488657215</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.01461833447142761</v>
+        <v>0.01498350892035928</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.1837095142697129</v>
+        <v>0.1824120451775419</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.01256009788601419</v>
+        <v>0.01275948252097032</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.0170221942576053</v>
+        <v>0.01675089250980118</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.01482713500032567</v>
+        <v>0.01470027436950417</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.1867976052128873</v>
+        <v>0.1874661648998225</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.01008152575337148</v>
+        <v>0.01009423674736567</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.01327400847965503</v>
+        <v>0.01314953955671335</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.0131159812803208</v>
+        <v>0.01308625515934571</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.1782839354945552</v>
+        <v>0.1801460764318168</v>
       </c>
     </row>
     <row r="31">
@@ -2107,35 +2107,35 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>944</v>
+        <v>974</v>
       </c>
       <c r="E6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>4437</v>
+        <v>3883</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="n">
-        <v>4806</v>
+        <v>5002</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>7119</v>
+        <v>7822</v>
       </c>
       <c r="K6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>7693</v>
+        <v>7296</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>1013</v>
+        <v>1019</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>14167</v>
+        <v>13867</v>
       </c>
     </row>
     <row r="7">
@@ -2146,38 +2146,38 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>5994</v>
+        <v>6186</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>9280</v>
+        <v>9554</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>6213</v>
+        <v>5715</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>12959</v>
+        <v>12350</v>
       </c>
       <c r="G7" s="6" t="inlineStr"/>
       <c r="H7" s="6" t="n">
-        <v>19787</v>
+        <v>19742</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>8781</v>
+        <v>7817</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>16052</v>
+        <v>16014</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>5423</v>
+        <v>5376</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>24841</v>
+        <v>24657</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>9636</v>
+        <v>9903</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>26024</v>
+        <v>26023</v>
       </c>
     </row>
     <row r="8">
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>10508</v>
+        <v>10728</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>1197</v>
+        <v>1726</v>
       </c>
       <c r="H10" s="6" t="n">
         <v>0</v>
@@ -2299,19 +2299,19 @@
         <v>0</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>13065</v>
+        <v>13464</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="L10" s="6" t="n">
         <v>948</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>1345</v>
+        <v>1020</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>26383</v>
+        <v>26769</v>
       </c>
     </row>
     <row r="11">
@@ -2323,37 +2323,37 @@
       </c>
       <c r="C11" s="6" t="inlineStr"/>
       <c r="D11" s="6" t="n">
-        <v>4769</v>
+        <v>5188</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>6849</v>
+        <v>6457</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>25794</v>
+        <v>27741</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>12609</v>
+        <v>12887</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>7117</v>
+        <v>6998</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>8340</v>
+        <v>7544</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>25759</v>
+        <v>25737</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>12329</v>
+        <v>13342</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>9682</v>
+        <v>8479</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>10673</v>
+        <v>12182</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>47753</v>
+        <v>47082</v>
       </c>
     </row>
     <row r="12">
@@ -2461,7 +2461,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>7855</v>
+        <v>8026</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>15016</v>
+        <v>14626</v>
       </c>
       <c r="K14" s="6" t="n">
         <v>0</v>
@@ -2482,10 +2482,10 @@
         <v>0</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>26249</v>
+        <v>25547</v>
       </c>
     </row>
     <row r="15">
@@ -2498,34 +2498,34 @@
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="n">
-        <v>5049</v>
+        <v>5004</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>17829</v>
+        <v>19013</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>7089</v>
+        <v>7584</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>8863</v>
+        <v>8107</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>6188</v>
+        <v>6968</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>26900</v>
+        <v>26176</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>6579</v>
+        <v>7549</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>8559</v>
+        <v>8668</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>7723</v>
+        <v>8520</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>41386</v>
+        <v>41478</v>
       </c>
     </row>
     <row r="16">
@@ -2633,29 +2633,29 @@
       <c r="D18" s="6" t="inlineStr"/>
       <c r="E18" s="6" t="inlineStr"/>
       <c r="F18" s="6" t="n">
-        <v>9061</v>
+        <v>9752</v>
       </c>
       <c r="G18" s="6" t="inlineStr"/>
       <c r="H18" s="6" t="n">
-        <v>1103</v>
+        <v>1841</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>10619</v>
+        <v>10591</v>
       </c>
       <c r="K18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1808</v>
+        <v>1864</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>22498</v>
+        <v>23541</v>
       </c>
     </row>
     <row r="19">
@@ -2666,34 +2666,34 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>5446</v>
+        <v>5844</v>
       </c>
       <c r="D19" s="6" t="inlineStr"/>
       <c r="E19" s="6" t="inlineStr"/>
       <c r="F19" s="6" t="n">
-        <v>27832</v>
+        <v>27954</v>
       </c>
       <c r="G19" s="6" t="inlineStr"/>
       <c r="H19" s="6" t="n">
-        <v>11257</v>
+        <v>10651</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>8747</v>
+        <v>7785</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>21073</v>
+        <v>20478</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>5937</v>
+        <v>5829</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>10728</v>
+        <v>11765</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>7386</v>
+        <v>7659</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>44905</v>
+        <v>44011</v>
       </c>
     </row>
     <row r="20">
@@ -2796,16 +2796,16 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="D22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1021</v>
+        <v>1011</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>1503</v>
+        <v>1454</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0</v>
@@ -2813,19 +2813,19 @@
       <c r="H22" s="6" t="inlineStr"/>
       <c r="I22" s="6" t="inlineStr"/>
       <c r="J22" s="6" t="n">
-        <v>4953</v>
+        <v>4837</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>2059</v>
+        <v>2075</v>
       </c>
       <c r="L22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>7870</v>
+        <v>7689</v>
       </c>
     </row>
     <row r="23">
@@ -2836,36 +2836,36 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>9345</v>
+        <v>10979</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>12901</v>
+        <v>10019</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>12151</v>
+        <v>11615</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>7574</v>
+        <v>6909</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>7385</v>
+        <v>8491</v>
       </c>
       <c r="H23" s="6" t="inlineStr"/>
       <c r="I23" s="6" t="inlineStr"/>
       <c r="J23" s="6" t="n">
-        <v>11211</v>
+        <v>11655</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>13062</v>
+        <v>13323</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>11156</v>
+        <v>11472</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>11791</v>
+        <v>10981</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>16164</v>
+        <v>16458</v>
       </c>
     </row>
     <row r="24">
@@ -2972,10 +2972,10 @@
         <v>0</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>799</v>
+        <v>811</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>8707</v>
+        <v>8410</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0</v>
@@ -2985,7 +2985,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>13431</v>
+        <v>13841</v>
       </c>
       <c r="K26" s="6" t="n">
         <v>0</v>
@@ -2994,10 +2994,10 @@
         <v>0</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>952</v>
+        <v>1109</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>24216</v>
+        <v>24595</v>
       </c>
     </row>
     <row r="27">
@@ -3009,35 +3009,35 @@
       </c>
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="n">
-        <v>6844</v>
+        <v>5870</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>7629</v>
+        <v>7969</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>17891</v>
+        <v>18110</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>7708</v>
+        <v>7670</v>
       </c>
       <c r="H27" s="6" t="inlineStr"/>
       <c r="I27" s="6" t="n">
-        <v>6276</v>
+        <v>6308</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>23529</v>
+        <v>23867</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>9184</v>
+        <v>7659</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>6729</v>
+        <v>6778</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>9993</v>
+        <v>10667</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>38578</v>
+        <v>39074</v>
       </c>
     </row>
     <row r="28">
@@ -3143,25 +3143,25 @@
         <v>0</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>1017</v>
+        <v>1971</v>
       </c>
       <c r="E30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>2661</v>
+        <v>2452</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>2125</v>
+        <v>2931</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>965</v>
+        <v>969</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>9796</v>
+        <v>9800</v>
       </c>
       <c r="K30" s="6" t="n">
         <v>0</v>
@@ -3170,10 +3170,10 @@
         <v>5395</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>2091</v>
+        <v>1994</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>14912</v>
+        <v>14629</v>
       </c>
     </row>
     <row r="31">
@@ -3184,40 +3184,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>4447</v>
+        <v>4117</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>12560</v>
+        <v>13088</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>7743</v>
+        <v>7953</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>12512</v>
+        <v>12254</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>5332</v>
+        <v>5385</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>13357</v>
+        <v>12968</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>9160</v>
+        <v>8538</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>23041</v>
+        <v>23488</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>5999</v>
+        <v>5606</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>20914</v>
+        <v>20706</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>11994</v>
+        <v>11475</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>33157</v>
+        <v>31815</v>
       </c>
     </row>
     <row r="32">
@@ -3320,40 +3320,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D34" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>1094</v>
+        <v>929</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>3457</v>
+        <v>3131</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="H34" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>3434</v>
+        <v>3679</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>17529</v>
+        <v>18216</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>3825</v>
+        <v>3830</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>940</v>
+        <v>946</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>6497</v>
+        <v>6201</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>23481</v>
+        <v>23137</v>
       </c>
     </row>
     <row r="35">
@@ -3364,40 +3364,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>11112</v>
+        <v>11957</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>7042</v>
+        <v>6418</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>9981</v>
+        <v>8925</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>12870</v>
+        <v>12947</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>12339</v>
+        <v>12737</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>7449</v>
+        <v>7069</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>16991</v>
+        <v>16868</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>33690</v>
+        <v>33994</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>18531</v>
+        <v>18881</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>9511</v>
+        <v>10374</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>21186</v>
+        <v>19916</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>42147</v>
+        <v>41655</v>
       </c>
     </row>
     <row r="36">
@@ -3500,40 +3500,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>5169</v>
+        <v>5506</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>9629</v>
+        <v>9436</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>10254</v>
+        <v>10913</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>68768</v>
+        <v>67346</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>9919</v>
+        <v>10239</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>19750</v>
+        <v>19241</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>14030</v>
+        <v>14055</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>115755</v>
+        <v>116038</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>19192</v>
+        <v>19405</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>31955</v>
+        <v>32400</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>29375</v>
+        <v>29162</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>193883</v>
+        <v>193737</v>
       </c>
     </row>
     <row r="39">
@@ -3544,40 +3544,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>20045</v>
+        <v>20943</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>28110</v>
+        <v>28510</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>27730</v>
+        <v>28423</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>103029</v>
+        <v>102301</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>28905</v>
+        <v>29364</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>42842</v>
+        <v>42159</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>34622</v>
+        <v>34325</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>147512</v>
+        <v>148040</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>42459</v>
+        <v>42513</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>61779</v>
+        <v>61200</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>55506</v>
+        <v>55380</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>240774</v>
+        <v>243289</v>
       </c>
     </row>
     <row r="40">
